--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aabed0562\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD27E94F-7DFE-4159-B6AA-72F505D68550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="2190" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="TestCases" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi3o+vUDU8EakaqqHWDia0mfJ0MMQ=="/>
@@ -324,58 +315,54 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="10">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="16.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
+    <font/>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -385,7 +372,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -413,39 +400,27 @@
     </fill>
   </fills>
   <borders count="7">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -455,7 +430,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -470,7 +444,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -479,119 +452,137 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -781,397 +772,395 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="26" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="24.14"/>
+    <col customWidth="1" min="2" max="2" width="19.14"/>
+    <col customWidth="1" min="3" max="3" width="7.43"/>
+    <col customWidth="1" min="4" max="4" width="26.57"/>
+    <col customWidth="1" min="5" max="5" width="13.71"/>
+    <col customWidth="1" min="6" max="6" width="34.57"/>
+    <col customWidth="1" min="7" max="7" width="15.29"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="9" width="13.71"/>
+    <col customWidth="1" min="10" max="10" width="16.0"/>
+    <col customWidth="1" min="11" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="33" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="123" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="123.0" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="151.5" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="151.5" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="126" customHeight="1">
-      <c r="A5" s="9" t="s">
+    <row r="5" ht="126.0" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="147.75">
-      <c r="A6" s="15" t="s">
+    <row r="6">
+      <c r="A6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="125.25">
-      <c r="A7" s="20" t="s">
+    <row r="7">
+      <c r="A7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="114">
-      <c r="A8" s="26" t="s">
+    <row r="8">
+      <c r="A8" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="226.5">
-      <c r="A9" s="10" t="s">
+    <row r="9">
+      <c r="A9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="249">
-      <c r="A10" s="10" t="s">
+    <row r="10">
+      <c r="A10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="159">
-      <c r="A11" s="16" t="s">
+    <row r="11">
+      <c r="A11" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="195">
-      <c r="A12" s="10" t="s">
+    <row r="12">
+      <c r="A12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2159,7 +2148,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>